--- a/REGULAR/ONT/HAPITA, MELANIE.xlsx
+++ b/REGULAR/ONT/HAPITA, MELANIE.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="238">
   <si>
     <t>PERIOD</t>
   </si>
@@ -738,6 +738,15 @@
   </si>
   <si>
     <t>10/17-31/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>12/25-27/2023</t>
+  </si>
+  <si>
+    <t>1/1,2/2024</t>
   </si>
 </sst>
 </file>
@@ -1448,7 +1457,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K383" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K385" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1777,12 +1786,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K383"/>
+  <dimension ref="A2:K385"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="2160" topLeftCell="A334" activePane="bottomLeft"/>
       <selection activeCell="B8" sqref="B8"/>
-      <selection pane="bottomLeft" activeCell="K349" sqref="K349"/>
+      <selection pane="bottomLeft" activeCell="K354" sqref="K354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1949,7 +1958,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>17.899000000000001</v>
+        <v>21.649000000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1959,7 +1968,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>42.5</v>
+        <v>40.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -9653,15 +9662,17 @@
       <c r="B349" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="C349" s="13"/>
+      <c r="C349" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D349" s="38">
         <v>10</v>
       </c>
       <c r="E349" s="9"/>
       <c r="F349" s="20"/>
-      <c r="G349" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G349" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H349" s="38"/>
       <c r="I349" s="9"/>
@@ -9675,13 +9686,15 @@
         <v>45231</v>
       </c>
       <c r="B350" s="20"/>
-      <c r="C350" s="13"/>
+      <c r="C350" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D350" s="38"/>
       <c r="E350" s="9"/>
       <c r="F350" s="20"/>
-      <c r="G350" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G350" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H350" s="38"/>
       <c r="I350" s="9"/>
@@ -9692,25 +9705,33 @@
       <c r="A351" s="39">
         <v>45261</v>
       </c>
-      <c r="B351" s="20"/>
-      <c r="C351" s="13"/>
+      <c r="B351" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C351" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D351" s="38"/>
       <c r="E351" s="9"/>
       <c r="F351" s="20"/>
-      <c r="G351" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H351" s="38"/>
+      <c r="G351" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H351" s="38">
+        <v>3</v>
+      </c>
       <c r="I351" s="9"/>
       <c r="J351" s="11"/>
-      <c r="K351" s="20"/>
+      <c r="K351" s="20" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A352" s="39">
-        <v>45292</v>
-      </c>
-      <c r="B352" s="20"/>
+      <c r="A352" s="39"/>
+      <c r="B352" s="20" t="s">
+        <v>98</v>
+      </c>
       <c r="C352" s="13"/>
       <c r="D352" s="38"/>
       <c r="E352" s="9"/>
@@ -9719,14 +9740,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H352" s="38"/>
+      <c r="H352" s="38">
+        <v>1</v>
+      </c>
       <c r="I352" s="9"/>
       <c r="J352" s="11"/>
-      <c r="K352" s="20"/>
+      <c r="K352" s="48">
+        <v>45291</v>
+      </c>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A353" s="39">
-        <v>45323</v>
+      <c r="A353" s="47" t="s">
+        <v>235</v>
       </c>
       <c r="B353" s="20"/>
       <c r="C353" s="13"/>
@@ -9744,9 +9769,11 @@
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="39">
-        <v>45352</v>
-      </c>
-      <c r="B354" s="20"/>
+        <v>45292</v>
+      </c>
+      <c r="B354" s="20" t="s">
+        <v>83</v>
+      </c>
       <c r="C354" s="13"/>
       <c r="D354" s="38"/>
       <c r="E354" s="9"/>
@@ -9755,14 +9782,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H354" s="38"/>
+      <c r="H354" s="38">
+        <v>2</v>
+      </c>
       <c r="I354" s="9"/>
       <c r="J354" s="11"/>
-      <c r="K354" s="20"/>
+      <c r="K354" s="20" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="39">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B355" s="20"/>
       <c r="C355" s="13"/>
@@ -9780,7 +9811,7 @@
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="39">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="B356" s="20"/>
       <c r="C356" s="13"/>
@@ -9797,8 +9828,10 @@
       <c r="K356" s="20"/>
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A357" s="39"/>
-      <c r="B357" s="50"/>
+      <c r="A357" s="39">
+        <v>45383</v>
+      </c>
+      <c r="B357" s="20"/>
       <c r="C357" s="13"/>
       <c r="D357" s="38"/>
       <c r="E357" s="9"/>
@@ -9813,8 +9846,10 @@
       <c r="K357" s="20"/>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A358" s="39"/>
-      <c r="B358" s="50"/>
+      <c r="A358" s="39">
+        <v>45413</v>
+      </c>
+      <c r="B358" s="20"/>
       <c r="C358" s="13"/>
       <c r="D358" s="38"/>
       <c r="E358" s="9"/>
@@ -10213,20 +10248,52 @@
       <c r="K382" s="20"/>
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A383" s="40"/>
-      <c r="B383" s="53"/>
-      <c r="C383" s="41"/>
-      <c r="D383" s="42"/>
+      <c r="A383" s="39"/>
+      <c r="B383" s="50"/>
+      <c r="C383" s="13"/>
+      <c r="D383" s="38"/>
       <c r="E383" s="9"/>
-      <c r="F383" s="15"/>
-      <c r="G383" s="41" t="str">
+      <c r="F383" s="20"/>
+      <c r="G383" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H383" s="42"/>
+      <c r="H383" s="38"/>
       <c r="I383" s="9"/>
-      <c r="J383" s="12"/>
-      <c r="K383" s="15"/>
+      <c r="J383" s="11"/>
+      <c r="K383" s="20"/>
+    </row>
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A384" s="39"/>
+      <c r="B384" s="50"/>
+      <c r="C384" s="13"/>
+      <c r="D384" s="38"/>
+      <c r="E384" s="9"/>
+      <c r="F384" s="20"/>
+      <c r="G384" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H384" s="38"/>
+      <c r="I384" s="9"/>
+      <c r="J384" s="11"/>
+      <c r="K384" s="20"/>
+    </row>
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A385" s="40"/>
+      <c r="B385" s="53"/>
+      <c r="C385" s="41"/>
+      <c r="D385" s="42"/>
+      <c r="E385" s="9"/>
+      <c r="F385" s="15"/>
+      <c r="G385" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H385" s="42"/>
+      <c r="I385" s="9"/>
+      <c r="J385" s="12"/>
+      <c r="K385" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/ONT/HAPITA, MELANIE.xlsx
+++ b/REGULAR/ONT/HAPITA, MELANIE.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\ONT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\ONT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EFFA5D-99CE-4724-B766-00D28CCCA516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="239">
   <si>
     <t>PERIOD</t>
   </si>
@@ -747,12 +748,15 @@
   </si>
   <si>
     <t>1/1,2/2024</t>
+  </si>
+  <si>
+    <t>1/31, 2/1,2,5,6/2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -990,7 +994,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1135,16 +1139,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1440,7 +1438,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1457,25 +1455,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K385" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K385" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1782,101 +1780,101 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K385"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="2160" topLeftCell="A334" activePane="bottomLeft"/>
+      <pane ySplit="2160" topLeftCell="A346" activePane="bottomLeft"/>
       <selection activeCell="B8" sqref="B8"/>
-      <selection pane="bottomLeft" activeCell="K354" sqref="K354"/>
+      <selection pane="bottomLeft" activeCell="B356" sqref="B356"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="55"/>
+      <c r="C2" s="53"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="60" t="s">
+      <c r="F2" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="60"/>
+      <c r="G2" s="58"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="55"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="61">
+      <c r="F3" s="59">
         <v>37511</v>
       </c>
-      <c r="G3" s="56"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="55"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="56"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="57"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1884,7 +1882,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1897,24 +1895,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1949,7 +1947,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1958,7 +1956,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>21.649000000000001</v>
+        <v>17.899000000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1968,12 +1966,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>40.25</v>
+        <v>41.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>81</v>
       </c>
@@ -1988,7 +1986,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
         <v>37599</v>
       </c>
@@ -2007,7 +2005,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="47" t="s">
         <v>82</v>
       </c>
@@ -2022,7 +2020,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="23">
         <v>37622</v>
       </c>
@@ -2042,7 +2040,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="23">
         <f>EDATE(A13,1)</f>
         <v>37653</v>
@@ -2063,7 +2061,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="23">
         <f t="shared" ref="A15:A24" si="0">EDATE(A14,1)</f>
         <v>37681</v>
@@ -2084,12 +2082,12 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="23">
         <f t="shared" si="0"/>
         <v>37712</v>
       </c>
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C16" s="13">
@@ -2111,12 +2109,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="23">
         <f t="shared" si="0"/>
         <v>37742</v>
       </c>
-      <c r="B17" s="50"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="13">
         <v>1.25</v>
       </c>
@@ -2132,12 +2130,12 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="23">
         <f t="shared" si="0"/>
         <v>37773</v>
       </c>
-      <c r="B18" s="50"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="13">
         <v>1.25</v>
       </c>
@@ -2153,12 +2151,12 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="23">
         <f t="shared" si="0"/>
         <v>37803</v>
       </c>
-      <c r="B19" s="50"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="13">
         <v>1.25</v>
       </c>
@@ -2174,12 +2172,12 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="23">
         <f t="shared" si="0"/>
         <v>37834</v>
       </c>
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C20" s="13">
@@ -2201,12 +2199,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="23">
         <f t="shared" si="0"/>
         <v>37865</v>
       </c>
-      <c r="B21" s="50"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="13">
         <v>1.25</v>
       </c>
@@ -2222,12 +2220,12 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="23">
         <f t="shared" si="0"/>
         <v>37895</v>
       </c>
-      <c r="B22" s="50"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="13">
         <v>1.25</v>
       </c>
@@ -2243,12 +2241,12 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="23">
         <f t="shared" si="0"/>
         <v>37926</v>
       </c>
-      <c r="B23" s="50"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="13">
         <v>1.25</v>
       </c>
@@ -2264,12 +2262,12 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="23">
         <f t="shared" si="0"/>
         <v>37956</v>
       </c>
-      <c r="B24" s="50" t="s">
+      <c r="B24" s="20" t="s">
         <v>86</v>
       </c>
       <c r="C24" s="13">
@@ -2289,11 +2287,11 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="B25" s="50"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="13"/>
       <c r="D25" s="38"/>
       <c r="E25" s="13"/>
@@ -2307,12 +2305,12 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="23">
         <f>EDATE(A24,1)</f>
         <v>37987</v>
       </c>
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C26" s="13">
@@ -2334,9 +2332,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="23"/>
-      <c r="B27" s="50" t="s">
+      <c r="B27" s="20" t="s">
         <v>89</v>
       </c>
       <c r="C27" s="13"/>
@@ -2353,12 +2351,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="23">
         <f>EDATE(A26,1)</f>
         <v>38018</v>
       </c>
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C28" s="13">
@@ -2380,12 +2378,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="23">
         <f t="shared" ref="A29:A38" si="1">EDATE(A28,1)</f>
         <v>38047</v>
       </c>
-      <c r="B29" s="50" t="s">
+      <c r="B29" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C29" s="13">
@@ -2407,12 +2405,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="23">
         <f t="shared" si="1"/>
         <v>38078</v>
       </c>
-      <c r="B30" s="50" t="s">
+      <c r="B30" s="20" t="s">
         <v>94</v>
       </c>
       <c r="C30" s="13">
@@ -2432,12 +2430,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="23">
         <f t="shared" si="1"/>
         <v>38108</v>
       </c>
-      <c r="B31" s="50"/>
+      <c r="B31" s="20"/>
       <c r="C31" s="13">
         <v>1.25</v>
       </c>
@@ -2453,12 +2451,12 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="23">
         <f t="shared" si="1"/>
         <v>38139</v>
       </c>
-      <c r="B32" s="50" t="s">
+      <c r="B32" s="20" t="s">
         <v>76</v>
       </c>
       <c r="C32" s="13">
@@ -2480,12 +2478,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="23">
         <f t="shared" si="1"/>
         <v>38169</v>
       </c>
-      <c r="B33" s="50" t="s">
+      <c r="B33" s="20" t="s">
         <v>96</v>
       </c>
       <c r="C33" s="13">
@@ -2507,12 +2505,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="23">
         <f t="shared" si="1"/>
         <v>38200</v>
       </c>
-      <c r="B34" s="50"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="13">
         <v>1.25</v>
       </c>
@@ -2528,12 +2526,12 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="23">
         <f t="shared" si="1"/>
         <v>38231</v>
       </c>
-      <c r="B35" s="50" t="s">
+      <c r="B35" s="20" t="s">
         <v>98</v>
       </c>
       <c r="C35" s="13">
@@ -2551,16 +2549,16 @@
       </c>
       <c r="I35" s="13"/>
       <c r="J35" s="11"/>
-      <c r="K35" s="51">
+      <c r="K35" s="50">
         <v>45171</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="23">
         <f t="shared" si="1"/>
         <v>38261</v>
       </c>
-      <c r="B36" s="50" t="s">
+      <c r="B36" s="20" t="s">
         <v>96</v>
       </c>
       <c r="C36" s="13">
@@ -2582,12 +2580,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="23">
         <f t="shared" si="1"/>
         <v>38292</v>
       </c>
-      <c r="B37" s="50" t="s">
+      <c r="B37" s="20" t="s">
         <v>98</v>
       </c>
       <c r="C37" s="13">
@@ -2605,16 +2603,16 @@
       </c>
       <c r="I37" s="13"/>
       <c r="J37" s="11"/>
-      <c r="K37" s="51">
+      <c r="K37" s="50">
         <v>45245</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="23">
         <f t="shared" si="1"/>
         <v>38322</v>
       </c>
-      <c r="B38" s="50"/>
+      <c r="B38" s="20"/>
       <c r="C38" s="13">
         <v>1.25</v>
       </c>
@@ -2630,11 +2628,11 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="B39" s="50"/>
+      <c r="B39" s="20"/>
       <c r="C39" s="13"/>
       <c r="D39" s="38"/>
       <c r="E39" s="13"/>
@@ -2648,12 +2646,12 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="23">
         <f>EDATE(A38,1)</f>
         <v>38353</v>
       </c>
-      <c r="B40" s="50"/>
+      <c r="B40" s="20"/>
       <c r="C40" s="13">
         <v>1.25</v>
       </c>
@@ -2669,12 +2667,12 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="23">
         <f>EDATE(A40,1)</f>
         <v>38384</v>
       </c>
-      <c r="B41" s="50" t="s">
+      <c r="B41" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C41" s="13">
@@ -2696,9 +2694,9 @@
         <v>101</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="23"/>
-      <c r="B42" s="50" t="s">
+      <c r="B42" s="20" t="s">
         <v>102</v>
       </c>
       <c r="C42" s="13"/>
@@ -2713,12 +2711,12 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="23">
         <f>EDATE(A41,1)</f>
         <v>38412</v>
       </c>
-      <c r="B43" s="50" t="s">
+      <c r="B43" s="20" t="s">
         <v>103</v>
       </c>
       <c r="C43" s="13">
@@ -2738,12 +2736,12 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="23">
         <f t="shared" ref="A44:A53" si="2">EDATE(A43,1)</f>
         <v>38443</v>
       </c>
-      <c r="B44" s="50" t="s">
+      <c r="B44" s="20" t="s">
         <v>104</v>
       </c>
       <c r="C44" s="13">
@@ -2765,9 +2763,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="23"/>
-      <c r="B45" s="50" t="s">
+      <c r="B45" s="20" t="s">
         <v>105</v>
       </c>
       <c r="C45" s="13"/>
@@ -2782,12 +2780,12 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="23">
         <f>EDATE(A44,1)</f>
         <v>38473</v>
       </c>
-      <c r="B46" s="50" t="s">
+      <c r="B46" s="20" t="s">
         <v>98</v>
       </c>
       <c r="C46" s="13">
@@ -2805,16 +2803,16 @@
       </c>
       <c r="I46" s="13"/>
       <c r="J46" s="11"/>
-      <c r="K46" s="51">
+      <c r="K46" s="50">
         <v>45066</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="23">
         <f t="shared" si="2"/>
         <v>38504</v>
       </c>
-      <c r="B47" s="50" t="s">
+      <c r="B47" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C47" s="13">
@@ -2836,12 +2834,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="23">
         <f t="shared" si="2"/>
         <v>38534</v>
       </c>
-      <c r="B48" s="50"/>
+      <c r="B48" s="20"/>
       <c r="C48" s="13">
         <v>1.25</v>
       </c>
@@ -2857,12 +2855,12 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="23">
         <f t="shared" si="2"/>
         <v>38565</v>
       </c>
-      <c r="B49" s="50"/>
+      <c r="B49" s="20"/>
       <c r="C49" s="13">
         <v>1.25</v>
       </c>
@@ -2878,12 +2876,12 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="23">
         <f t="shared" si="2"/>
         <v>38596</v>
       </c>
-      <c r="B50" s="50" t="s">
+      <c r="B50" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C50" s="13">
@@ -2905,9 +2903,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="23"/>
-      <c r="B51" s="50" t="s">
+      <c r="B51" s="20" t="s">
         <v>106</v>
       </c>
       <c r="C51" s="13"/>
@@ -2926,12 +2924,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="23">
         <f>EDATE(A50,1)</f>
         <v>38626</v>
       </c>
-      <c r="B52" s="50" t="s">
+      <c r="B52" s="20" t="s">
         <v>111</v>
       </c>
       <c r="C52" s="13">
@@ -2953,12 +2951,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="23">
         <f t="shared" si="2"/>
         <v>38657</v>
       </c>
-      <c r="B53" s="50"/>
+      <c r="B53" s="20"/>
       <c r="C53" s="13">
         <v>1.25</v>
       </c>
@@ -2974,12 +2972,12 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="23">
         <f>EDATE(A53,1)</f>
         <v>38687</v>
       </c>
-      <c r="B54" s="50"/>
+      <c r="B54" s="20"/>
       <c r="C54" s="13">
         <v>1.25</v>
       </c>
@@ -2995,11 +2993,11 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="B55" s="50"/>
+      <c r="B55" s="20"/>
       <c r="C55" s="13"/>
       <c r="D55" s="38"/>
       <c r="E55" s="13"/>
@@ -3013,12 +3011,12 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="23">
         <f>EDATE(A54,1)</f>
         <v>38718</v>
       </c>
-      <c r="B56" s="50"/>
+      <c r="B56" s="20"/>
       <c r="C56" s="13">
         <v>1.25</v>
       </c>
@@ -3034,12 +3032,12 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="23">
         <f>EDATE(A56,1)</f>
         <v>38749</v>
       </c>
-      <c r="B57" s="50" t="s">
+      <c r="B57" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C57" s="13">
@@ -3061,12 +3059,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="23">
         <f t="shared" ref="A58:A70" si="3">EDATE(A57,1)</f>
         <v>38777</v>
       </c>
-      <c r="B58" s="50" t="s">
+      <c r="B58" s="20" t="s">
         <v>115</v>
       </c>
       <c r="C58" s="13">
@@ -3088,9 +3086,9 @@
         <v>117</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="23"/>
-      <c r="B59" s="50" t="s">
+      <c r="B59" s="20" t="s">
         <v>116</v>
       </c>
       <c r="C59" s="13"/>
@@ -3107,12 +3105,12 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="23">
         <f>EDATE(A58,1)</f>
         <v>38808</v>
       </c>
-      <c r="B60" s="50"/>
+      <c r="B60" s="20"/>
       <c r="C60" s="13">
         <v>1.25</v>
       </c>
@@ -3128,12 +3126,12 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="23">
         <f t="shared" si="3"/>
         <v>38838</v>
       </c>
-      <c r="B61" s="50" t="s">
+      <c r="B61" s="20" t="s">
         <v>118</v>
       </c>
       <c r="C61" s="13">
@@ -3155,9 +3153,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="23"/>
-      <c r="B62" s="50" t="s">
+      <c r="B62" s="20" t="s">
         <v>119</v>
       </c>
       <c r="C62" s="13"/>
@@ -3176,9 +3174,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="23"/>
-      <c r="B63" s="50" t="s">
+      <c r="B63" s="20" t="s">
         <v>120</v>
       </c>
       <c r="C63" s="13"/>
@@ -3193,12 +3191,12 @@
         <v>123</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="23">
         <f>EDATE(A61,1)</f>
         <v>38869</v>
       </c>
-      <c r="B64" s="50"/>
+      <c r="B64" s="20"/>
       <c r="C64" s="13">
         <v>1.25</v>
       </c>
@@ -3214,12 +3212,12 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="23">
         <f t="shared" si="3"/>
         <v>38899</v>
       </c>
-      <c r="B65" s="50"/>
+      <c r="B65" s="20"/>
       <c r="C65" s="13">
         <v>1.25</v>
       </c>
@@ -3235,12 +3233,12 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="23">
         <f t="shared" si="3"/>
         <v>38930</v>
       </c>
-      <c r="B66" s="50"/>
+      <c r="B66" s="20"/>
       <c r="C66" s="13">
         <v>1.25</v>
       </c>
@@ -3256,12 +3254,12 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="23">
         <f t="shared" si="3"/>
         <v>38961</v>
       </c>
-      <c r="B67" s="50" t="s">
+      <c r="B67" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C67" s="13">
@@ -3283,12 +3281,12 @@
         <v>124</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="23">
         <f t="shared" si="3"/>
         <v>38991</v>
       </c>
-      <c r="B68" s="50"/>
+      <c r="B68" s="20"/>
       <c r="C68" s="13">
         <v>1.25</v>
       </c>
@@ -3304,12 +3302,12 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="23">
         <f>EDATE(A68,1)</f>
         <v>39022</v>
       </c>
-      <c r="B69" s="50"/>
+      <c r="B69" s="20"/>
       <c r="C69" s="13">
         <v>1.25</v>
       </c>
@@ -3325,12 +3323,12 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="23">
         <f t="shared" si="3"/>
         <v>39052</v>
       </c>
-      <c r="B70" s="50"/>
+      <c r="B70" s="20"/>
       <c r="C70" s="13">
         <v>1.25</v>
       </c>
@@ -3346,11 +3344,11 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="B71" s="50"/>
+      <c r="B71" s="20"/>
       <c r="C71" s="13"/>
       <c r="D71" s="38"/>
       <c r="E71" s="13"/>
@@ -3364,12 +3362,12 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="23">
         <f>EDATE(A70,1)</f>
         <v>39083</v>
       </c>
-      <c r="B72" s="50" t="s">
+      <c r="B72" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C72" s="13">
@@ -3391,9 +3389,9 @@
         <v>126</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="23"/>
-      <c r="B73" s="50" t="s">
+      <c r="B73" s="20" t="s">
         <v>127</v>
       </c>
       <c r="C73" s="13"/>
@@ -3408,12 +3406,12 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="23">
         <f>EDATE(A72,1)</f>
         <v>39114</v>
       </c>
-      <c r="B74" s="50"/>
+      <c r="B74" s="20"/>
       <c r="C74" s="13">
         <v>1.25</v>
       </c>
@@ -3429,12 +3427,12 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="23">
         <f t="shared" ref="A75:A86" si="4">EDATE(A74,1)</f>
         <v>39142</v>
       </c>
-      <c r="B75" s="50" t="s">
+      <c r="B75" s="20" t="s">
         <v>98</v>
       </c>
       <c r="C75" s="13">
@@ -3452,16 +3450,16 @@
       </c>
       <c r="I75" s="13"/>
       <c r="J75" s="11"/>
-      <c r="K75" s="51">
+      <c r="K75" s="50">
         <v>45011</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="23">
         <f t="shared" si="4"/>
         <v>39173</v>
       </c>
-      <c r="B76" s="50"/>
+      <c r="B76" s="20"/>
       <c r="C76" s="13">
         <v>1.25</v>
       </c>
@@ -3477,12 +3475,12 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="23">
         <f t="shared" si="4"/>
         <v>39203</v>
       </c>
-      <c r="B77" s="50" t="s">
+      <c r="B77" s="20" t="s">
         <v>94</v>
       </c>
       <c r="C77" s="13">
@@ -3502,9 +3500,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="23"/>
-      <c r="B78" s="50" t="s">
+      <c r="B78" s="20" t="s">
         <v>94</v>
       </c>
       <c r="C78" s="13"/>
@@ -3517,12 +3515,12 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="23">
         <f>EDATE(A77,1)</f>
         <v>39234</v>
       </c>
-      <c r="B79" s="50"/>
+      <c r="B79" s="20"/>
       <c r="C79" s="13">
         <v>1.25</v>
       </c>
@@ -3540,12 +3538,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="23">
         <f t="shared" si="4"/>
         <v>39264</v>
       </c>
-      <c r="B80" s="50"/>
+      <c r="B80" s="20"/>
       <c r="C80" s="13">
         <v>1.25</v>
       </c>
@@ -3561,12 +3559,12 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="23">
         <f t="shared" si="4"/>
         <v>39295</v>
       </c>
-      <c r="B81" s="50" t="s">
+      <c r="B81" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C81" s="13">
@@ -3588,12 +3586,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="23">
         <f t="shared" si="4"/>
         <v>39326</v>
       </c>
-      <c r="B82" s="50"/>
+      <c r="B82" s="20"/>
       <c r="C82" s="13">
         <v>1.25</v>
       </c>
@@ -3609,12 +3607,12 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="23">
         <f t="shared" si="4"/>
         <v>39356</v>
       </c>
-      <c r="B83" s="50" t="s">
+      <c r="B83" s="20" t="s">
         <v>98</v>
       </c>
       <c r="C83" s="13">
@@ -3632,13 +3630,13 @@
       </c>
       <c r="I83" s="13"/>
       <c r="J83" s="11"/>
-      <c r="K83" s="51">
+      <c r="K83" s="50">
         <v>45204</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="23"/>
-      <c r="B84" s="50" t="s">
+      <c r="B84" s="20" t="s">
         <v>98</v>
       </c>
       <c r="C84" s="13"/>
@@ -3651,16 +3649,16 @@
       </c>
       <c r="I84" s="13"/>
       <c r="J84" s="11"/>
-      <c r="K84" s="51">
+      <c r="K84" s="50">
         <v>45217</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="23">
         <f>EDATE(A83,1)</f>
         <v>39387</v>
       </c>
-      <c r="B85" s="50"/>
+      <c r="B85" s="20"/>
       <c r="C85" s="13">
         <v>1.25</v>
       </c>
@@ -3676,12 +3674,12 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="23">
         <f t="shared" si="4"/>
         <v>39417</v>
       </c>
-      <c r="B86" s="50"/>
+      <c r="B86" s="20"/>
       <c r="C86" s="13">
         <v>1.25</v>
       </c>
@@ -3697,11 +3695,11 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="B87" s="50"/>
+      <c r="B87" s="20"/>
       <c r="C87" s="13"/>
       <c r="D87" s="38"/>
       <c r="E87" s="13"/>
@@ -3715,12 +3713,12 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="23">
         <f>EDATE(A86,1)</f>
         <v>39448</v>
       </c>
-      <c r="B88" s="50" t="s">
+      <c r="B88" s="20" t="s">
         <v>131</v>
       </c>
       <c r="C88" s="13">
@@ -3742,12 +3740,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="23">
         <f>EDATE(A88,1)</f>
         <v>39479</v>
       </c>
-      <c r="B89" s="50"/>
+      <c r="B89" s="20"/>
       <c r="C89" s="13">
         <v>1.25</v>
       </c>
@@ -3763,12 +3761,12 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="23">
         <f t="shared" ref="A90:A100" si="5">EDATE(A89,1)</f>
         <v>39508</v>
       </c>
-      <c r="B90" s="50" t="s">
+      <c r="B90" s="20" t="s">
         <v>133</v>
       </c>
       <c r="C90" s="13">
@@ -3784,16 +3782,16 @@
       <c r="H90" s="38"/>
       <c r="I90" s="13"/>
       <c r="J90" s="11"/>
-      <c r="K90" s="52" t="s">
+      <c r="K90" s="51" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="23">
         <f t="shared" si="5"/>
         <v>39539</v>
       </c>
-      <c r="B91" s="50"/>
+      <c r="B91" s="20"/>
       <c r="C91" s="13">
         <v>1.25</v>
       </c>
@@ -3809,12 +3807,12 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="23">
         <f t="shared" si="5"/>
         <v>39569</v>
       </c>
-      <c r="B92" s="50" t="s">
+      <c r="B92" s="20" t="s">
         <v>94</v>
       </c>
       <c r="C92" s="13">
@@ -3830,13 +3828,13 @@
       <c r="H92" s="38"/>
       <c r="I92" s="13"/>
       <c r="J92" s="11"/>
-      <c r="K92" s="51">
+      <c r="K92" s="50">
         <v>45048</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="23"/>
-      <c r="B93" s="50" t="s">
+      <c r="B93" s="20" t="s">
         <v>127</v>
       </c>
       <c r="C93" s="13"/>
@@ -3853,12 +3851,12 @@
         <v>136</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="23">
         <f>EDATE(A92,1)</f>
         <v>39600</v>
       </c>
-      <c r="B94" s="50"/>
+      <c r="B94" s="20"/>
       <c r="C94" s="13">
         <v>1.25</v>
       </c>
@@ -3874,12 +3872,12 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="23">
         <f t="shared" si="5"/>
         <v>39630</v>
       </c>
-      <c r="B95" s="50"/>
+      <c r="B95" s="20"/>
       <c r="C95" s="13">
         <v>1.25</v>
       </c>
@@ -3895,12 +3893,12 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="23">
         <f t="shared" si="5"/>
         <v>39661</v>
       </c>
-      <c r="B96" s="50" t="s">
+      <c r="B96" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C96" s="13">
@@ -3922,12 +3920,12 @@
         <v>137</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="23">
         <f t="shared" si="5"/>
         <v>39692</v>
       </c>
-      <c r="B97" s="50"/>
+      <c r="B97" s="20"/>
       <c r="C97" s="13">
         <v>1.25</v>
       </c>
@@ -3943,12 +3941,12 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="23">
         <f t="shared" si="5"/>
         <v>39722</v>
       </c>
-      <c r="B98" s="50" t="s">
+      <c r="B98" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C98" s="13">
@@ -3970,12 +3968,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="23">
         <f t="shared" si="5"/>
         <v>39753</v>
       </c>
-      <c r="B99" s="50"/>
+      <c r="B99" s="20"/>
       <c r="C99" s="13">
         <v>1.25</v>
       </c>
@@ -3991,12 +3989,12 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="23">
         <f t="shared" si="5"/>
         <v>39783</v>
       </c>
-      <c r="B100" s="50"/>
+      <c r="B100" s="20"/>
       <c r="C100" s="13">
         <v>1.25</v>
       </c>
@@ -4012,11 +4010,11 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="B101" s="50"/>
+      <c r="B101" s="20"/>
       <c r="C101" s="13"/>
       <c r="D101" s="38"/>
       <c r="E101" s="13"/>
@@ -4030,12 +4028,12 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="23">
         <f>EDATE(A100,1)</f>
         <v>39814</v>
       </c>
-      <c r="B102" s="50" t="s">
+      <c r="B102" s="20" t="s">
         <v>96</v>
       </c>
       <c r="C102" s="13">
@@ -4057,9 +4055,9 @@
         <v>143</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="23"/>
-      <c r="B103" s="50" t="s">
+      <c r="B103" s="20" t="s">
         <v>140</v>
       </c>
       <c r="C103" s="13"/>
@@ -4076,9 +4074,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="23"/>
-      <c r="B104" s="50" t="s">
+      <c r="B104" s="20" t="s">
         <v>141</v>
       </c>
       <c r="C104" s="13"/>
@@ -4093,12 +4091,12 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="23">
         <f>EDATE(A102,1)</f>
         <v>39845</v>
       </c>
-      <c r="B105" s="50" t="s">
+      <c r="B105" s="20" t="s">
         <v>142</v>
       </c>
       <c r="C105" s="13">
@@ -4118,12 +4116,12 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="23">
         <f t="shared" ref="A106:A117" si="6">EDATE(A105,1)</f>
         <v>39873</v>
       </c>
-      <c r="B106" s="50" t="s">
+      <c r="B106" s="20" t="s">
         <v>94</v>
       </c>
       <c r="C106" s="13">
@@ -4139,13 +4137,13 @@
       <c r="H106" s="38"/>
       <c r="I106" s="13"/>
       <c r="J106" s="11"/>
-      <c r="K106" s="51">
+      <c r="K106" s="50">
         <v>45011</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="23"/>
-      <c r="B107" s="50" t="s">
+      <c r="B107" s="20" t="s">
         <v>145</v>
       </c>
       <c r="C107" s="13"/>
@@ -4160,12 +4158,12 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="23">
         <f>EDATE(A106,1)</f>
         <v>39904</v>
       </c>
-      <c r="B108" s="50" t="s">
+      <c r="B108" s="20" t="s">
         <v>146</v>
       </c>
       <c r="C108" s="13">
@@ -4185,12 +4183,12 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="23">
         <f t="shared" si="6"/>
         <v>39934</v>
       </c>
-      <c r="B109" s="50" t="s">
+      <c r="B109" s="20" t="s">
         <v>86</v>
       </c>
       <c r="C109" s="13">
@@ -4210,9 +4208,9 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="23"/>
-      <c r="B110" s="50" t="s">
+      <c r="B110" s="20" t="s">
         <v>103</v>
       </c>
       <c r="C110" s="13"/>
@@ -4227,12 +4225,12 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="23">
         <f>EDATE(A109,1)</f>
         <v>39965</v>
       </c>
-      <c r="B111" s="50" t="s">
+      <c r="B111" s="20" t="s">
         <v>147</v>
       </c>
       <c r="C111" s="13">
@@ -4252,12 +4250,12 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="23">
         <f t="shared" si="6"/>
         <v>39995</v>
       </c>
-      <c r="B112" s="50" t="s">
+      <c r="B112" s="20" t="s">
         <v>148</v>
       </c>
       <c r="C112" s="13">
@@ -4277,12 +4275,12 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="23">
         <f t="shared" si="6"/>
         <v>40026</v>
       </c>
-      <c r="B113" s="50" t="s">
+      <c r="B113" s="20" t="s">
         <v>149</v>
       </c>
       <c r="C113" s="13">
@@ -4302,12 +4300,12 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="23">
         <f t="shared" si="6"/>
         <v>40057</v>
       </c>
-      <c r="B114" s="50" t="s">
+      <c r="B114" s="20" t="s">
         <v>150</v>
       </c>
       <c r="C114" s="13">
@@ -4327,12 +4325,12 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="23">
         <f t="shared" si="6"/>
         <v>40087</v>
       </c>
-      <c r="B115" s="50" t="s">
+      <c r="B115" s="20" t="s">
         <v>151</v>
       </c>
       <c r="C115" s="13">
@@ -4352,12 +4350,12 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="23">
         <f t="shared" si="6"/>
         <v>40118</v>
       </c>
-      <c r="B116" s="50" t="s">
+      <c r="B116" s="20" t="s">
         <v>152</v>
       </c>
       <c r="C116" s="13">
@@ -4377,12 +4375,12 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="23">
         <f t="shared" si="6"/>
         <v>40148</v>
       </c>
-      <c r="B117" s="50" t="s">
+      <c r="B117" s="20" t="s">
         <v>153</v>
       </c>
       <c r="C117" s="13">
@@ -4402,11 +4400,11 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="B118" s="50"/>
+      <c r="B118" s="20"/>
       <c r="C118" s="13"/>
       <c r="D118" s="38"/>
       <c r="E118" s="13"/>
@@ -4420,12 +4418,12 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="23">
         <f>EDATE(A117,1)</f>
         <v>40179</v>
       </c>
-      <c r="B119" s="50" t="s">
+      <c r="B119" s="20" t="s">
         <v>140</v>
       </c>
       <c r="C119" s="13">
@@ -4447,9 +4445,9 @@
         <v>158</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="23"/>
-      <c r="B120" s="50" t="s">
+      <c r="B120" s="20" t="s">
         <v>155</v>
       </c>
       <c r="C120" s="13"/>
@@ -4464,12 +4462,12 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="23">
         <f>EDATE(A119,1)</f>
         <v>40210</v>
       </c>
-      <c r="B121" s="50" t="s">
+      <c r="B121" s="20" t="s">
         <v>156</v>
       </c>
       <c r="C121" s="13">
@@ -4489,12 +4487,12 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="23">
         <f t="shared" ref="A122:A134" si="7">EDATE(A121,1)</f>
         <v>40238</v>
       </c>
-      <c r="B122" s="50"/>
+      <c r="B122" s="20"/>
       <c r="C122" s="13">
         <v>1.25</v>
       </c>
@@ -4510,12 +4508,12 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="23">
         <f t="shared" si="7"/>
         <v>40269</v>
       </c>
-      <c r="B123" s="50"/>
+      <c r="B123" s="20"/>
       <c r="C123" s="13">
         <v>1.25</v>
       </c>
@@ -4531,12 +4529,12 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="23">
         <f t="shared" si="7"/>
         <v>40299</v>
       </c>
-      <c r="B124" s="50" t="s">
+      <c r="B124" s="20" t="s">
         <v>94</v>
       </c>
       <c r="C124" s="13">
@@ -4552,16 +4550,16 @@
       <c r="H124" s="38"/>
       <c r="I124" s="13"/>
       <c r="J124" s="11"/>
-      <c r="K124" s="51">
+      <c r="K124" s="50">
         <v>45066</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="23">
         <f t="shared" si="7"/>
         <v>40330</v>
       </c>
-      <c r="B125" s="50" t="s">
+      <c r="B125" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C125" s="13">
@@ -4583,12 +4581,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="23">
         <f t="shared" si="7"/>
         <v>40360</v>
       </c>
-      <c r="B126" s="50" t="s">
+      <c r="B126" s="20" t="s">
         <v>157</v>
       </c>
       <c r="C126" s="13">
@@ -4610,9 +4608,9 @@
         <v>160</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="23"/>
-      <c r="B127" s="50" t="s">
+      <c r="B127" s="20" t="s">
         <v>103</v>
       </c>
       <c r="C127" s="13"/>
@@ -4627,12 +4625,12 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="23">
         <f>EDATE(A126,1)</f>
         <v>40391</v>
       </c>
-      <c r="B128" s="50" t="s">
+      <c r="B128" s="20" t="s">
         <v>103</v>
       </c>
       <c r="C128" s="13">
@@ -4652,12 +4650,12 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="23">
         <f t="shared" si="7"/>
         <v>40422</v>
       </c>
-      <c r="B129" s="50" t="s">
+      <c r="B129" s="20" t="s">
         <v>161</v>
       </c>
       <c r="C129" s="13">
@@ -4677,12 +4675,12 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="23">
         <f t="shared" si="7"/>
         <v>40452</v>
       </c>
-      <c r="B130" s="50" t="s">
+      <c r="B130" s="20" t="s">
         <v>89</v>
       </c>
       <c r="C130" s="13">
@@ -4704,9 +4702,9 @@
         <v>164</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="23"/>
-      <c r="B131" s="50" t="s">
+      <c r="B131" s="20" t="s">
         <v>162</v>
       </c>
       <c r="C131" s="13"/>
@@ -4723,9 +4721,9 @@
         <v>165</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="23"/>
-      <c r="B132" s="50" t="s">
+      <c r="B132" s="20" t="s">
         <v>163</v>
       </c>
       <c r="C132" s="13"/>
@@ -4740,12 +4738,12 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="23">
         <f>EDATE(A130,1)</f>
         <v>40483</v>
       </c>
-      <c r="B133" s="50" t="s">
+      <c r="B133" s="20" t="s">
         <v>145</v>
       </c>
       <c r="C133" s="13">
@@ -4765,12 +4763,12 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="23">
         <f t="shared" si="7"/>
         <v>40513</v>
       </c>
-      <c r="B134" s="50" t="s">
+      <c r="B134" s="20" t="s">
         <v>152</v>
       </c>
       <c r="C134" s="13">
@@ -4790,11 +4788,11 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="B135" s="50"/>
+      <c r="B135" s="20"/>
       <c r="C135" s="13"/>
       <c r="D135" s="38"/>
       <c r="E135" s="13"/>
@@ -4808,12 +4806,12 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="23">
         <f>EDATE(A134,1)</f>
         <v>40544</v>
       </c>
-      <c r="B136" s="50" t="s">
+      <c r="B136" s="20" t="s">
         <v>89</v>
       </c>
       <c r="C136" s="13">
@@ -4835,9 +4833,9 @@
         <v>182</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="23"/>
-      <c r="B137" s="50" t="s">
+      <c r="B137" s="20" t="s">
         <v>76</v>
       </c>
       <c r="C137" s="13"/>
@@ -4854,9 +4852,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="23"/>
-      <c r="B138" s="50" t="s">
+      <c r="B138" s="20" t="s">
         <v>103</v>
       </c>
       <c r="C138" s="13"/>
@@ -4871,12 +4869,12 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="23">
         <f>EDATE(A136,1)</f>
         <v>40575</v>
       </c>
-      <c r="B139" s="50" t="s">
+      <c r="B139" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C139" s="13">
@@ -4898,9 +4896,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="23"/>
-      <c r="B140" s="50" t="s">
+      <c r="B140" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C140" s="13"/>
@@ -4917,9 +4915,9 @@
         <v>181</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="23"/>
-      <c r="B141" s="50" t="s">
+      <c r="B141" s="20" t="s">
         <v>172</v>
       </c>
       <c r="C141" s="13"/>
@@ -4934,12 +4932,12 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="23">
         <f>EDATE(A139,1)</f>
         <v>40603</v>
       </c>
-      <c r="B142" s="50" t="s">
+      <c r="B142" s="20" t="s">
         <v>94</v>
       </c>
       <c r="C142" s="13">
@@ -4955,13 +4953,13 @@
       <c r="H142" s="38"/>
       <c r="I142" s="13"/>
       <c r="J142" s="11"/>
-      <c r="K142" s="51">
+      <c r="K142" s="50">
         <v>45011</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="23"/>
-      <c r="B143" s="50" t="s">
+      <c r="B143" s="20" t="s">
         <v>150</v>
       </c>
       <c r="C143" s="13"/>
@@ -4976,12 +4974,12 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="23">
         <f>EDATE(A142,1)</f>
         <v>40634</v>
       </c>
-      <c r="B144" s="50" t="s">
+      <c r="B144" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C144" s="13">
@@ -5003,9 +5001,9 @@
         <v>179</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="23"/>
-      <c r="B145" s="50" t="s">
+      <c r="B145" s="20" t="s">
         <v>173</v>
       </c>
       <c r="C145" s="13"/>
@@ -5022,9 +5020,9 @@
         <v>178</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="23"/>
-      <c r="B146" s="50" t="s">
+      <c r="B146" s="20" t="s">
         <v>94</v>
       </c>
       <c r="C146" s="13"/>
@@ -5039,9 +5037,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="23"/>
-      <c r="B147" s="50" t="s">
+      <c r="B147" s="20" t="s">
         <v>174</v>
       </c>
       <c r="C147" s="13"/>
@@ -5056,12 +5054,12 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="23">
         <f>EDATE(A144,1)</f>
         <v>40664</v>
       </c>
-      <c r="B148" s="50" t="s">
+      <c r="B148" s="20" t="s">
         <v>96</v>
       </c>
       <c r="C148" s="13">
@@ -5083,12 +5081,12 @@
         <v>177</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="23">
         <f t="shared" ref="A149:A157" si="8">EDATE(A148,1)</f>
         <v>40695</v>
       </c>
-      <c r="B149" s="50"/>
+      <c r="B149" s="20"/>
       <c r="C149" s="13">
         <v>1.25</v>
       </c>
@@ -5104,12 +5102,12 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="23">
         <f t="shared" si="8"/>
         <v>40725</v>
       </c>
-      <c r="B150" s="50" t="s">
+      <c r="B150" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C150" s="13">
@@ -5131,12 +5129,12 @@
         <v>175</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="23">
         <f t="shared" si="8"/>
         <v>40756</v>
       </c>
-      <c r="B151" s="50" t="s">
+      <c r="B151" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C151" s="13">
@@ -5158,12 +5156,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="23">
         <f t="shared" si="8"/>
         <v>40787</v>
       </c>
-      <c r="B152" s="50" t="s">
+      <c r="B152" s="20" t="s">
         <v>98</v>
       </c>
       <c r="C152" s="13">
@@ -5181,13 +5179,13 @@
       </c>
       <c r="I152" s="13"/>
       <c r="J152" s="11"/>
-      <c r="K152" s="51">
+      <c r="K152" s="50">
         <v>45182</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="23"/>
-      <c r="B153" s="50" t="s">
+      <c r="B153" s="20" t="s">
         <v>170</v>
       </c>
       <c r="C153" s="13"/>
@@ -5204,12 +5202,12 @@
         <v>171</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="23">
         <f>EDATE(A152,1)</f>
         <v>40817</v>
       </c>
-      <c r="B154" s="50" t="s">
+      <c r="B154" s="20" t="s">
         <v>89</v>
       </c>
       <c r="C154" s="13">
@@ -5231,9 +5229,9 @@
         <v>44486</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="23"/>
-      <c r="B155" s="50" t="s">
+      <c r="B155" s="20" t="s">
         <v>168</v>
       </c>
       <c r="C155" s="13"/>
@@ -5250,12 +5248,12 @@
         <v>169</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="23">
         <f>EDATE(A154,1)</f>
         <v>40848</v>
       </c>
-      <c r="B156" s="50"/>
+      <c r="B156" s="20"/>
       <c r="C156" s="13">
         <v>1.25</v>
       </c>
@@ -5271,12 +5269,12 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="23">
         <f t="shared" si="8"/>
         <v>40878</v>
       </c>
-      <c r="B157" s="50" t="s">
+      <c r="B157" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C157" s="13">
@@ -5298,11 +5296,11 @@
         <v>167</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="47" t="s">
         <v>184</v>
       </c>
-      <c r="B158" s="50"/>
+      <c r="B158" s="20"/>
       <c r="C158" s="13"/>
       <c r="D158" s="38"/>
       <c r="E158" s="13"/>
@@ -5316,12 +5314,12 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="23">
         <f>EDATE(A157,1)</f>
         <v>40909</v>
       </c>
-      <c r="B159" s="50" t="s">
+      <c r="B159" s="20" t="s">
         <v>185</v>
       </c>
       <c r="C159" s="13">
@@ -5343,9 +5341,9 @@
         <v>186</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="23"/>
-      <c r="B160" s="50" t="s">
+      <c r="B160" s="20" t="s">
         <v>86</v>
       </c>
       <c r="C160" s="13"/>
@@ -5362,12 +5360,12 @@
         <v>187</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="23">
         <f>EDATE(A159,1)</f>
         <v>40940</v>
       </c>
-      <c r="B161" s="50"/>
+      <c r="B161" s="20"/>
       <c r="C161" s="13">
         <v>1.25</v>
       </c>
@@ -5383,12 +5381,12 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="23">
         <f t="shared" ref="A162:A174" si="9">EDATE(A161,1)</f>
         <v>40969</v>
       </c>
-      <c r="B162" s="50" t="s">
+      <c r="B162" s="20" t="s">
         <v>94</v>
       </c>
       <c r="C162" s="13">
@@ -5404,16 +5402,16 @@
       <c r="H162" s="38"/>
       <c r="I162" s="13"/>
       <c r="J162" s="11"/>
-      <c r="K162" s="51">
+      <c r="K162" s="50">
         <v>45011</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="23">
         <f t="shared" si="9"/>
         <v>41000</v>
       </c>
-      <c r="B163" s="50"/>
+      <c r="B163" s="20"/>
       <c r="C163" s="13">
         <v>1.25</v>
       </c>
@@ -5429,12 +5427,12 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="23">
         <f t="shared" si="9"/>
         <v>41030</v>
       </c>
-      <c r="B164" s="50" t="s">
+      <c r="B164" s="20" t="s">
         <v>96</v>
       </c>
       <c r="C164" s="13">
@@ -5456,9 +5454,9 @@
         <v>190</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="23"/>
-      <c r="B165" s="50" t="s">
+      <c r="B165" s="20" t="s">
         <v>188</v>
       </c>
       <c r="C165" s="13"/>
@@ -5475,9 +5473,9 @@
         <v>189</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="23"/>
-      <c r="B166" s="50" t="s">
+      <c r="B166" s="20" t="s">
         <v>94</v>
       </c>
       <c r="C166" s="13"/>
@@ -5492,12 +5490,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="23">
         <f>EDATE(A164,1)</f>
         <v>41061</v>
       </c>
-      <c r="B167" s="50"/>
+      <c r="B167" s="20"/>
       <c r="C167" s="13">
         <v>1.25</v>
       </c>
@@ -5513,12 +5511,12 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="23">
         <f t="shared" si="9"/>
         <v>41091</v>
       </c>
-      <c r="B168" s="50"/>
+      <c r="B168" s="20"/>
       <c r="C168" s="13">
         <v>1.25</v>
       </c>
@@ -5534,12 +5532,12 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="23">
         <f t="shared" si="9"/>
         <v>41122</v>
       </c>
-      <c r="B169" s="50"/>
+      <c r="B169" s="20"/>
       <c r="C169" s="13">
         <v>1.25</v>
       </c>
@@ -5555,12 +5553,12 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="23">
         <f t="shared" si="9"/>
         <v>41153</v>
       </c>
-      <c r="B170" s="50"/>
+      <c r="B170" s="20"/>
       <c r="C170" s="13">
         <v>1.25</v>
       </c>
@@ -5576,12 +5574,12 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="23">
         <f t="shared" si="9"/>
         <v>41183</v>
       </c>
-      <c r="B171" s="50" t="s">
+      <c r="B171" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C171" s="13">
@@ -5603,9 +5601,9 @@
         <v>191</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="23"/>
-      <c r="B172" s="50" t="s">
+      <c r="B172" s="20" t="s">
         <v>135</v>
       </c>
       <c r="C172" s="13"/>
@@ -5618,16 +5616,16 @@
       <c r="H172" s="38"/>
       <c r="I172" s="13"/>
       <c r="J172" s="11"/>
-      <c r="K172" s="51">
+      <c r="K172" s="50">
         <v>45212</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="23">
         <f>EDATE(A171,1)</f>
         <v>41214</v>
       </c>
-      <c r="B173" s="50"/>
+      <c r="B173" s="20"/>
       <c r="C173" s="13">
         <v>1.25</v>
       </c>
@@ -5643,12 +5641,12 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="23">
         <f t="shared" si="9"/>
         <v>41244</v>
       </c>
-      <c r="B174" s="50"/>
+      <c r="B174" s="20"/>
       <c r="C174" s="13">
         <v>1.25</v>
       </c>
@@ -5664,11 +5662,11 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="47" t="s">
         <v>192</v>
       </c>
-      <c r="B175" s="50"/>
+      <c r="B175" s="20"/>
       <c r="C175" s="13"/>
       <c r="D175" s="38"/>
       <c r="E175" s="13"/>
@@ -5682,12 +5680,12 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="23">
         <f>EDATE(A174,1)</f>
         <v>41275</v>
       </c>
-      <c r="B176" s="50" t="s">
+      <c r="B176" s="20" t="s">
         <v>98</v>
       </c>
       <c r="C176" s="13">
@@ -5705,13 +5703,13 @@
       </c>
       <c r="I176" s="13"/>
       <c r="J176" s="11"/>
-      <c r="K176" s="51">
+      <c r="K176" s="50">
         <v>44931</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="23"/>
-      <c r="B177" s="50" t="s">
+      <c r="B177" s="20" t="s">
         <v>89</v>
       </c>
       <c r="C177" s="13"/>
@@ -5728,9 +5726,9 @@
         <v>193</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="23"/>
-      <c r="B178" s="50" t="s">
+      <c r="B178" s="20" t="s">
         <v>96</v>
       </c>
       <c r="C178" s="13"/>
@@ -5747,12 +5745,12 @@
         <v>194</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="23">
         <f>EDATE(A176,1)</f>
         <v>41306</v>
       </c>
-      <c r="B179" s="50"/>
+      <c r="B179" s="20"/>
       <c r="C179" s="13">
         <v>1.25</v>
       </c>
@@ -5768,12 +5766,12 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="23">
         <f t="shared" ref="A180:A190" si="10">EDATE(A179,1)</f>
         <v>41334</v>
       </c>
-      <c r="B180" s="50" t="s">
+      <c r="B180" s="20" t="s">
         <v>94</v>
       </c>
       <c r="C180" s="13">
@@ -5789,16 +5787,16 @@
       <c r="H180" s="38"/>
       <c r="I180" s="13"/>
       <c r="J180" s="11"/>
-      <c r="K180" s="51">
+      <c r="K180" s="50">
         <v>45011</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="23">
         <f t="shared" si="10"/>
         <v>41365</v>
       </c>
-      <c r="B181" s="50" t="s">
+      <c r="B181" s="20" t="s">
         <v>127</v>
       </c>
       <c r="C181" s="13">
@@ -5820,12 +5818,12 @@
         <v>195</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="23">
         <f t="shared" si="10"/>
         <v>41395</v>
       </c>
-      <c r="B182" s="50" t="s">
+      <c r="B182" s="20" t="s">
         <v>94</v>
       </c>
       <c r="C182" s="13">
@@ -5845,9 +5843,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="23"/>
-      <c r="B183" s="50" t="s">
+      <c r="B183" s="20" t="s">
         <v>89</v>
       </c>
       <c r="C183" s="13"/>
@@ -5864,12 +5862,12 @@
         <v>196</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="23">
         <f>EDATE(A182,1)</f>
         <v>41426</v>
       </c>
-      <c r="B184" s="50"/>
+      <c r="B184" s="20"/>
       <c r="C184" s="13">
         <v>1.25</v>
       </c>
@@ -5885,12 +5883,12 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="23">
         <f t="shared" si="10"/>
         <v>41456</v>
       </c>
-      <c r="B185" s="50"/>
+      <c r="B185" s="20"/>
       <c r="C185" s="13">
         <v>1.25</v>
       </c>
@@ -5906,12 +5904,12 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="23">
         <f t="shared" si="10"/>
         <v>41487</v>
       </c>
-      <c r="B186" s="50" t="s">
+      <c r="B186" s="20" t="s">
         <v>197</v>
       </c>
       <c r="C186" s="13">
@@ -5929,16 +5927,16 @@
       <c r="H186" s="38"/>
       <c r="I186" s="13"/>
       <c r="J186" s="11"/>
-      <c r="K186" s="51">
+      <c r="K186" s="50">
         <v>45152</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="23">
         <f t="shared" si="10"/>
         <v>41518</v>
       </c>
-      <c r="B187" s="50"/>
+      <c r="B187" s="20"/>
       <c r="C187" s="13">
         <v>1.25</v>
       </c>
@@ -5954,12 +5952,12 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="23">
         <f t="shared" si="10"/>
         <v>41548</v>
       </c>
-      <c r="B188" s="50"/>
+      <c r="B188" s="20"/>
       <c r="C188" s="13">
         <v>1.25</v>
       </c>
@@ -5975,12 +5973,12 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="23">
         <f>EDATE(A188,1)</f>
         <v>41579</v>
       </c>
-      <c r="B189" s="50" t="s">
+      <c r="B189" s="20" t="s">
         <v>89</v>
       </c>
       <c r="C189" s="13">
@@ -6002,12 +6000,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="23">
         <f t="shared" si="10"/>
         <v>41609</v>
       </c>
-      <c r="B190" s="50"/>
+      <c r="B190" s="20"/>
       <c r="C190" s="13">
         <v>1.25</v>
       </c>
@@ -6023,11 +6021,11 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="B191" s="50"/>
+      <c r="B191" s="20"/>
       <c r="C191" s="13"/>
       <c r="D191" s="38"/>
       <c r="E191" s="13"/>
@@ -6041,12 +6039,12 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="23">
         <f>EDATE(A190,1)</f>
         <v>41640</v>
       </c>
-      <c r="B192" s="50" t="s">
+      <c r="B192" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C192" s="13">
@@ -6068,9 +6066,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="23"/>
-      <c r="B193" s="50" t="s">
+      <c r="B193" s="20" t="s">
         <v>89</v>
       </c>
       <c r="C193" s="13"/>
@@ -6087,12 +6085,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="23">
         <f>EDATE(A192,1)</f>
         <v>41671</v>
       </c>
-      <c r="B194" s="50"/>
+      <c r="B194" s="20"/>
       <c r="C194" s="13">
         <v>1.25</v>
       </c>
@@ -6108,12 +6106,12 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="23">
         <f t="shared" ref="A195:A207" si="11">EDATE(A194,1)</f>
         <v>41699</v>
       </c>
-      <c r="B195" s="50" t="s">
+      <c r="B195" s="20" t="s">
         <v>127</v>
       </c>
       <c r="C195" s="13">
@@ -6135,9 +6133,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="23"/>
-      <c r="B196" s="50" t="s">
+      <c r="B196" s="20" t="s">
         <v>94</v>
       </c>
       <c r="C196" s="13"/>
@@ -6148,13 +6146,13 @@
       <c r="H196" s="38"/>
       <c r="I196" s="13"/>
       <c r="J196" s="11"/>
-      <c r="K196" s="51">
+      <c r="K196" s="50">
         <v>45011</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="23"/>
-      <c r="B197" s="50" t="s">
+      <c r="B197" s="20" t="s">
         <v>94</v>
       </c>
       <c r="C197" s="13"/>
@@ -6165,16 +6163,16 @@
       <c r="H197" s="38"/>
       <c r="I197" s="13"/>
       <c r="J197" s="11"/>
-      <c r="K197" s="51">
+      <c r="K197" s="50">
         <v>45013</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="23">
         <f>EDATE(A195,1)</f>
         <v>41730</v>
       </c>
-      <c r="B198" s="50"/>
+      <c r="B198" s="20"/>
       <c r="C198" s="13">
         <v>1.25</v>
       </c>
@@ -6190,12 +6188,12 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="23">
         <f t="shared" si="11"/>
         <v>41760</v>
       </c>
-      <c r="B199" s="50" t="s">
+      <c r="B199" s="20" t="s">
         <v>94</v>
       </c>
       <c r="C199" s="13">
@@ -6215,9 +6213,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="23"/>
-      <c r="B200" s="50" t="s">
+      <c r="B200" s="20" t="s">
         <v>203</v>
       </c>
       <c r="C200" s="13"/>
@@ -6234,12 +6232,12 @@
         <v>204</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="23">
         <f>EDATE(A199,1)</f>
         <v>41791</v>
       </c>
-      <c r="B201" s="50"/>
+      <c r="B201" s="20"/>
       <c r="C201" s="13">
         <v>1.25</v>
       </c>
@@ -6255,12 +6253,12 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="23">
         <f t="shared" si="11"/>
         <v>41821</v>
       </c>
-      <c r="B202" s="50" t="s">
+      <c r="B202" s="20" t="s">
         <v>98</v>
       </c>
       <c r="C202" s="13">
@@ -6278,16 +6276,16 @@
       </c>
       <c r="I202" s="13"/>
       <c r="J202" s="11"/>
-      <c r="K202" s="51">
+      <c r="K202" s="50">
         <v>45120</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="23">
         <f t="shared" si="11"/>
         <v>41852</v>
       </c>
-      <c r="B203" s="50" t="s">
+      <c r="B203" s="20" t="s">
         <v>135</v>
       </c>
       <c r="C203" s="13">
@@ -6305,16 +6303,16 @@
       <c r="H203" s="38"/>
       <c r="I203" s="13"/>
       <c r="J203" s="11"/>
-      <c r="K203" s="51">
+      <c r="K203" s="50">
         <v>45145</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="23">
         <f t="shared" si="11"/>
         <v>41883</v>
       </c>
-      <c r="B204" s="50"/>
+      <c r="B204" s="20"/>
       <c r="C204" s="13">
         <v>1.25</v>
       </c>
@@ -6330,12 +6328,12 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="23">
         <f t="shared" si="11"/>
         <v>41913</v>
       </c>
-      <c r="B205" s="50"/>
+      <c r="B205" s="20"/>
       <c r="C205" s="13">
         <v>1.25</v>
       </c>
@@ -6351,12 +6349,12 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="23">
         <f t="shared" si="11"/>
         <v>41944</v>
       </c>
-      <c r="B206" s="50" t="s">
+      <c r="B206" s="20" t="s">
         <v>89</v>
       </c>
       <c r="C206" s="13">
@@ -6378,12 +6376,12 @@
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="23">
         <f t="shared" si="11"/>
         <v>41974</v>
       </c>
-      <c r="B207" s="50"/>
+      <c r="B207" s="20"/>
       <c r="C207" s="13">
         <v>1.25</v>
       </c>
@@ -6399,11 +6397,11 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="47" t="s">
         <v>206</v>
       </c>
-      <c r="B208" s="50"/>
+      <c r="B208" s="20"/>
       <c r="C208" s="13"/>
       <c r="D208" s="38"/>
       <c r="E208" s="13"/>
@@ -6417,12 +6415,12 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="23">
         <f>EDATE(A207,1)</f>
         <v>42005</v>
       </c>
-      <c r="B209" s="50" t="s">
+      <c r="B209" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C209" s="13">
@@ -6444,9 +6442,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="23"/>
-      <c r="B210" s="50" t="s">
+      <c r="B210" s="20" t="s">
         <v>76</v>
       </c>
       <c r="C210" s="13"/>
@@ -6463,12 +6461,12 @@
         <v>207</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="23">
         <f>EDATE(A209,1)</f>
         <v>42036</v>
       </c>
-      <c r="B211" s="50" t="s">
+      <c r="B211" s="20" t="s">
         <v>89</v>
       </c>
       <c r="C211" s="13">
@@ -6490,9 +6488,9 @@
         <v>208</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="23"/>
-      <c r="B212" s="50" t="s">
+      <c r="B212" s="20" t="s">
         <v>98</v>
       </c>
       <c r="C212" s="13"/>
@@ -6507,12 +6505,12 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="23">
         <f>EDATE(A211,1)</f>
         <v>42064</v>
       </c>
-      <c r="B213" s="50" t="s">
+      <c r="B213" s="20" t="s">
         <v>76</v>
       </c>
       <c r="C213" s="13">
@@ -6534,9 +6532,9 @@
         <v>209</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="23"/>
-      <c r="B214" s="50" t="s">
+      <c r="B214" s="20" t="s">
         <v>94</v>
       </c>
       <c r="C214" s="13"/>
@@ -6547,16 +6545,16 @@
       <c r="H214" s="38"/>
       <c r="I214" s="13"/>
       <c r="J214" s="11"/>
-      <c r="K214" s="51">
+      <c r="K214" s="50">
         <v>45011</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="23">
         <f>EDATE(A213,1)</f>
         <v>42095</v>
       </c>
-      <c r="B215" s="50"/>
+      <c r="B215" s="20"/>
       <c r="C215" s="13">
         <v>1.25</v>
       </c>
@@ -6572,12 +6570,12 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="23">
         <f t="shared" ref="A216:A224" si="12">EDATE(A215,1)</f>
         <v>42125</v>
       </c>
-      <c r="B216" s="50" t="s">
+      <c r="B216" s="20" t="s">
         <v>89</v>
       </c>
       <c r="C216" s="13">
@@ -6599,12 +6597,12 @@
         <v>210</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="23">
         <f t="shared" si="12"/>
         <v>42156</v>
       </c>
-      <c r="B217" s="50" t="s">
+      <c r="B217" s="20" t="s">
         <v>76</v>
       </c>
       <c r="C217" s="13">
@@ -6626,12 +6624,12 @@
         <v>211</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="23">
         <f t="shared" si="12"/>
         <v>42186</v>
       </c>
-      <c r="B218" s="50" t="s">
+      <c r="B218" s="20" t="s">
         <v>98</v>
       </c>
       <c r="C218" s="13">
@@ -6649,13 +6647,13 @@
       </c>
       <c r="I218" s="13"/>
       <c r="J218" s="11"/>
-      <c r="K218" s="51">
+      <c r="K218" s="50">
         <v>45108</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="23"/>
-      <c r="B219" s="50" t="s">
+      <c r="B219" s="20" t="s">
         <v>98</v>
       </c>
       <c r="C219" s="13"/>
@@ -6668,16 +6666,16 @@
       </c>
       <c r="I219" s="13"/>
       <c r="J219" s="11"/>
-      <c r="K219" s="51">
+      <c r="K219" s="50">
         <v>45093</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="23">
         <f>EDATE(A218,1)</f>
         <v>42217</v>
       </c>
-      <c r="B220" s="50" t="s">
+      <c r="B220" s="20" t="s">
         <v>98</v>
       </c>
       <c r="C220" s="13">
@@ -6695,13 +6693,13 @@
       </c>
       <c r="I220" s="13"/>
       <c r="J220" s="11"/>
-      <c r="K220" s="51">
+      <c r="K220" s="50">
         <v>45144</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="23"/>
-      <c r="B221" s="50" t="s">
+      <c r="B221" s="20" t="s">
         <v>135</v>
       </c>
       <c r="C221" s="13"/>
@@ -6714,16 +6712,16 @@
       <c r="H221" s="38"/>
       <c r="I221" s="13"/>
       <c r="J221" s="11"/>
-      <c r="K221" s="51">
+      <c r="K221" s="50">
         <v>45151</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="23">
         <f>EDATE(A220,1)</f>
         <v>42248</v>
       </c>
-      <c r="B222" s="50" t="s">
+      <c r="B222" s="20" t="s">
         <v>115</v>
       </c>
       <c r="C222" s="13">
@@ -6745,12 +6743,12 @@
         <v>212</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="23">
         <f t="shared" si="12"/>
         <v>42278</v>
       </c>
-      <c r="B223" s="50" t="s">
+      <c r="B223" s="20" t="s">
         <v>96</v>
       </c>
       <c r="C223" s="13">
@@ -6772,12 +6770,12 @@
         <v>213</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="23">
         <f t="shared" si="12"/>
         <v>42309</v>
       </c>
-      <c r="B224" s="50"/>
+      <c r="B224" s="20"/>
       <c r="C224" s="13">
         <v>1.25</v>
       </c>
@@ -6793,12 +6791,12 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="23">
         <f>EDATE(A224,1)</f>
         <v>42339</v>
       </c>
-      <c r="B225" s="50"/>
+      <c r="B225" s="20"/>
       <c r="C225" s="13">
         <v>1.25</v>
       </c>
@@ -6814,11 +6812,11 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="47" t="s">
         <v>214</v>
       </c>
-      <c r="B226" s="50"/>
+      <c r="B226" s="20"/>
       <c r="C226" s="13"/>
       <c r="D226" s="38"/>
       <c r="E226" s="13"/>
@@ -6832,12 +6830,12 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="23">
         <f>EDATE(A225,1)</f>
         <v>42370</v>
       </c>
-      <c r="B227" s="50" t="s">
+      <c r="B227" s="20" t="s">
         <v>89</v>
       </c>
       <c r="C227" s="13">
@@ -6859,12 +6857,12 @@
         <v>215</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="23">
         <f>EDATE(A227,1)</f>
         <v>42401</v>
       </c>
-      <c r="B228" s="50" t="s">
+      <c r="B228" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C228" s="13">
@@ -6886,12 +6884,12 @@
         <v>216</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="23">
         <f t="shared" ref="A229:A238" si="13">EDATE(A228,1)</f>
         <v>42430</v>
       </c>
-      <c r="B229" s="50" t="s">
+      <c r="B229" s="20" t="s">
         <v>94</v>
       </c>
       <c r="C229" s="13">
@@ -6907,13 +6905,13 @@
       <c r="H229" s="38"/>
       <c r="I229" s="13"/>
       <c r="J229" s="11"/>
-      <c r="K229" s="51">
+      <c r="K229" s="50">
         <v>45011</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="23"/>
-      <c r="B230" s="50" t="s">
+      <c r="B230" s="20" t="s">
         <v>94</v>
       </c>
       <c r="C230" s="13"/>
@@ -6924,16 +6922,16 @@
       <c r="H230" s="38"/>
       <c r="I230" s="13"/>
       <c r="J230" s="11"/>
-      <c r="K230" s="51">
+      <c r="K230" s="50">
         <v>45066</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="23">
         <f>EDATE(A229,1)</f>
         <v>42461</v>
       </c>
-      <c r="B231" s="50" t="s">
+      <c r="B231" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C231" s="13">
@@ -6955,12 +6953,12 @@
         <v>217</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="23">
         <f t="shared" si="13"/>
         <v>42491</v>
       </c>
-      <c r="B232" s="50" t="s">
+      <c r="B232" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C232" s="13">
@@ -6980,12 +6978,12 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="23">
         <f t="shared" si="13"/>
         <v>42522</v>
       </c>
-      <c r="B233" s="50"/>
+      <c r="B233" s="20"/>
       <c r="C233" s="13">
         <v>1.25</v>
       </c>
@@ -7001,12 +6999,12 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="23">
         <f t="shared" si="13"/>
         <v>42552</v>
       </c>
-      <c r="B234" s="50"/>
+      <c r="B234" s="20"/>
       <c r="C234" s="13">
         <v>1.25</v>
       </c>
@@ -7022,12 +7020,12 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="23">
         <f t="shared" si="13"/>
         <v>42583</v>
       </c>
-      <c r="B235" s="50"/>
+      <c r="B235" s="20"/>
       <c r="C235" s="13">
         <v>1.25</v>
       </c>
@@ -7043,12 +7041,12 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="23">
         <f t="shared" si="13"/>
         <v>42614</v>
       </c>
-      <c r="B236" s="50"/>
+      <c r="B236" s="20"/>
       <c r="C236" s="13">
         <v>1.25</v>
       </c>
@@ -7064,12 +7062,12 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="23">
         <f t="shared" si="13"/>
         <v>42644</v>
       </c>
-      <c r="B237" s="50"/>
+      <c r="B237" s="20"/>
       <c r="C237" s="13">
         <v>1.25</v>
       </c>
@@ -7085,12 +7083,12 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="23">
         <f t="shared" si="13"/>
         <v>42675</v>
       </c>
-      <c r="B238" s="50" t="s">
+      <c r="B238" s="20" t="s">
         <v>96</v>
       </c>
       <c r="C238" s="13">
@@ -7112,9 +7110,9 @@
         <v>218</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="23"/>
-      <c r="B239" s="50" t="s">
+      <c r="B239" s="20" t="s">
         <v>162</v>
       </c>
       <c r="C239" s="13"/>
@@ -7131,12 +7129,12 @@
         <v>219</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="23">
         <f>EDATE(A238,1)</f>
         <v>42705</v>
       </c>
-      <c r="B240" s="50"/>
+      <c r="B240" s="20"/>
       <c r="C240" s="13">
         <v>1.25</v>
       </c>
@@ -7152,11 +7150,11 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="47" t="s">
         <v>220</v>
       </c>
-      <c r="B241" s="50"/>
+      <c r="B241" s="20"/>
       <c r="C241" s="13"/>
       <c r="D241" s="38"/>
       <c r="E241" s="13"/>
@@ -7170,12 +7168,12 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="23">
         <f>EDATE(A240,1)</f>
         <v>42736</v>
       </c>
-      <c r="B242" s="50"/>
+      <c r="B242" s="20"/>
       <c r="C242" s="13">
         <v>1.25</v>
       </c>
@@ -7191,12 +7189,12 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="23">
         <f>EDATE(A242,1)</f>
         <v>42767</v>
       </c>
-      <c r="B243" s="50" t="s">
+      <c r="B243" s="20" t="s">
         <v>89</v>
       </c>
       <c r="C243" s="13">
@@ -7218,12 +7216,12 @@
         <v>221</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="23">
         <f t="shared" ref="A244:A255" si="14">EDATE(A243,1)</f>
         <v>42795</v>
       </c>
-      <c r="B244" s="50" t="s">
+      <c r="B244" s="20" t="s">
         <v>94</v>
       </c>
       <c r="C244" s="13">
@@ -7239,16 +7237,16 @@
       <c r="H244" s="38"/>
       <c r="I244" s="13"/>
       <c r="J244" s="11"/>
-      <c r="K244" s="51">
+      <c r="K244" s="50">
         <v>45011</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="23">
         <f t="shared" si="14"/>
         <v>42826</v>
       </c>
-      <c r="B245" s="50"/>
+      <c r="B245" s="20"/>
       <c r="C245" s="13">
         <v>1.25</v>
       </c>
@@ -7264,12 +7262,12 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="23">
         <f t="shared" si="14"/>
         <v>42856</v>
       </c>
-      <c r="B246" s="50" t="s">
+      <c r="B246" s="20" t="s">
         <v>94</v>
       </c>
       <c r="C246" s="13">
@@ -7285,16 +7283,16 @@
       <c r="H246" s="38"/>
       <c r="I246" s="13"/>
       <c r="J246" s="11"/>
-      <c r="K246" s="51">
+      <c r="K246" s="50">
         <v>45066</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="23">
         <f t="shared" si="14"/>
         <v>42887</v>
       </c>
-      <c r="B247" s="50" t="s">
+      <c r="B247" s="20" t="s">
         <v>76</v>
       </c>
       <c r="C247" s="13">
@@ -7316,9 +7314,9 @@
         <v>222</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="23"/>
-      <c r="B248" s="50" t="s">
+      <c r="B248" s="20" t="s">
         <v>135</v>
       </c>
       <c r="C248" s="13"/>
@@ -7331,13 +7329,13 @@
       <c r="H248" s="38"/>
       <c r="I248" s="13"/>
       <c r="J248" s="11"/>
-      <c r="K248" s="51">
+      <c r="K248" s="50">
         <v>45107</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="23"/>
-      <c r="B249" s="50" t="s">
+      <c r="B249" s="20" t="s">
         <v>98</v>
       </c>
       <c r="C249" s="13"/>
@@ -7350,16 +7348,16 @@
       </c>
       <c r="I249" s="13"/>
       <c r="J249" s="11"/>
-      <c r="K249" s="51">
+      <c r="K249" s="50">
         <v>45094</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="23">
         <f>EDATE(A247,1)</f>
         <v>42917</v>
       </c>
-      <c r="B250" s="50" t="s">
+      <c r="B250" s="20" t="s">
         <v>98</v>
       </c>
       <c r="C250" s="13">
@@ -7377,16 +7375,16 @@
       </c>
       <c r="I250" s="13"/>
       <c r="J250" s="11"/>
-      <c r="K250" s="51">
+      <c r="K250" s="50">
         <v>45114</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="23">
         <f t="shared" si="14"/>
         <v>42948</v>
       </c>
-      <c r="B251" s="50" t="s">
+      <c r="B251" s="20" t="s">
         <v>89</v>
       </c>
       <c r="C251" s="13">
@@ -7408,9 +7406,9 @@
         <v>223</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="23"/>
-      <c r="B252" s="50" t="s">
+      <c r="B252" s="20" t="s">
         <v>203</v>
       </c>
       <c r="C252" s="13"/>
@@ -7427,12 +7425,12 @@
         <v>224</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="23">
         <f>EDATE(A251,1)</f>
         <v>42979</v>
       </c>
-      <c r="B253" s="50"/>
+      <c r="B253" s="20"/>
       <c r="C253" s="13">
         <v>1.25</v>
       </c>
@@ -7448,12 +7446,12 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="23">
         <f t="shared" si="14"/>
         <v>43009</v>
       </c>
-      <c r="B254" s="50"/>
+      <c r="B254" s="20"/>
       <c r="C254" s="13">
         <v>1.25</v>
       </c>
@@ -7469,12 +7467,12 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="23">
         <f t="shared" si="14"/>
         <v>43040</v>
       </c>
-      <c r="B255" s="50" t="s">
+      <c r="B255" s="20" t="s">
         <v>140</v>
       </c>
       <c r="C255" s="13">
@@ -7496,12 +7494,12 @@
         <v>225</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="23">
         <f>EDATE(A255,1)</f>
         <v>43070</v>
       </c>
-      <c r="B256" s="50" t="s">
+      <c r="B256" s="20" t="s">
         <v>98</v>
       </c>
       <c r="C256" s="13">
@@ -7519,11 +7517,11 @@
       </c>
       <c r="I256" s="13"/>
       <c r="J256" s="11"/>
-      <c r="K256" s="51">
+      <c r="K256" s="50">
         <v>45275</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="47" t="s">
         <v>46</v>
       </c>
@@ -7541,7 +7539,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="39">
         <v>43101</v>
       </c>
@@ -7567,7 +7565,7 @@
         <v>43253</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="39">
         <v>43132</v>
       </c>
@@ -7591,11 +7589,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="39">
         <v>43160</v>
       </c>
-      <c r="B260" s="50" t="s">
+      <c r="B260" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C260" s="13">
@@ -7615,7 +7613,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="39">
         <v>43191</v>
       </c>
@@ -7641,7 +7639,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40"/>
       <c r="B262" s="15" t="s">
         <v>56</v>
@@ -7663,7 +7661,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="39"/>
       <c r="B263" s="20" t="s">
         <v>47</v>
@@ -7685,11 +7683,11 @@
         <v>53</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="39">
         <v>43221</v>
       </c>
-      <c r="B264" s="50" t="s">
+      <c r="B264" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C264" s="13">
@@ -7709,11 +7707,11 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="39">
         <v>43252</v>
       </c>
-      <c r="B265" s="50" t="s">
+      <c r="B265" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C265" s="13">
@@ -7733,11 +7731,11 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="39">
         <v>43282</v>
       </c>
-      <c r="B266" s="50" t="s">
+      <c r="B266" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C266" s="13">
@@ -7757,11 +7755,11 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="39">
         <v>43313</v>
       </c>
-      <c r="B267" s="50" t="s">
+      <c r="B267" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C267" s="13">
@@ -7781,11 +7779,11 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="39">
         <v>43344</v>
       </c>
-      <c r="B268" s="50" t="s">
+      <c r="B268" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C268" s="13">
@@ -7805,7 +7803,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="39">
         <v>43374</v>
       </c>
@@ -7831,11 +7829,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="39">
         <v>43405</v>
       </c>
-      <c r="B270" s="50" t="s">
+      <c r="B270" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C270" s="13">
@@ -7855,11 +7853,11 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="39">
         <v>43435</v>
       </c>
-      <c r="B271" s="50" t="s">
+      <c r="B271" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C271" s="13">
@@ -7879,7 +7877,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="47" t="s">
         <v>55</v>
       </c>
@@ -7897,7 +7895,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="39">
         <v>43466</v>
       </c>
@@ -7923,7 +7921,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="39"/>
       <c r="B274" s="20" t="s">
         <v>57</v>
@@ -7945,7 +7943,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="39"/>
       <c r="B275" s="20" t="s">
         <v>47</v>
@@ -7967,7 +7965,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="39"/>
       <c r="B276" s="20" t="s">
         <v>56</v>
@@ -7989,11 +7987,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="39">
         <v>43497</v>
       </c>
-      <c r="B277" s="50" t="s">
+      <c r="B277" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C277" s="13">
@@ -8013,11 +8011,11 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="39">
         <v>43525</v>
       </c>
-      <c r="B278" s="50" t="s">
+      <c r="B278" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C278" s="13">
@@ -8037,11 +8035,11 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="39">
         <v>43556</v>
       </c>
-      <c r="B279" s="50" t="s">
+      <c r="B279" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C279" s="13">
@@ -8061,7 +8059,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="39">
         <v>43586</v>
       </c>
@@ -8087,7 +8085,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="39"/>
       <c r="B281" s="20" t="s">
         <v>48</v>
@@ -8107,7 +8105,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="39">
         <v>43617</v>
       </c>
@@ -8133,7 +8131,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="39"/>
       <c r="B283" s="20" t="s">
         <v>47</v>
@@ -8155,7 +8153,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="39"/>
       <c r="B284" s="20" t="s">
         <v>226</v>
@@ -8177,7 +8175,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="39">
         <v>43647</v>
       </c>
@@ -8203,7 +8201,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="39"/>
       <c r="B286" s="20" t="s">
         <v>47</v>
@@ -8225,11 +8223,11 @@
         <v>43380</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="39">
         <v>43678</v>
       </c>
-      <c r="B287" s="50" t="s">
+      <c r="B287" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C287" s="13">
@@ -8249,11 +8247,11 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="39">
         <v>43709</v>
       </c>
-      <c r="B288" s="50" t="s">
+      <c r="B288" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C288" s="13">
@@ -8273,11 +8271,11 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="39">
         <v>43739</v>
       </c>
-      <c r="B289" s="50" t="s">
+      <c r="B289" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C289" s="13">
@@ -8297,11 +8295,11 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="39">
         <v>43770</v>
       </c>
-      <c r="B290" s="50" t="s">
+      <c r="B290" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C290" s="13">
@@ -8321,7 +8319,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="39">
         <v>43800</v>
       </c>
@@ -8345,7 +8343,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="47" t="s">
         <v>69</v>
       </c>
@@ -8363,7 +8361,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="39">
         <v>43831</v>
       </c>
@@ -8389,7 +8387,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="39">
         <v>43862</v>
       </c>
@@ -8415,11 +8413,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="39">
         <v>43891</v>
       </c>
-      <c r="B295" s="50" t="s">
+      <c r="B295" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C295" s="13">
@@ -8439,11 +8437,11 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="39">
         <v>43922</v>
       </c>
-      <c r="B296" s="50" t="s">
+      <c r="B296" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C296" s="13">
@@ -8463,11 +8461,11 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="39">
         <v>43952</v>
       </c>
-      <c r="B297" s="50" t="s">
+      <c r="B297" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C297" s="13">
@@ -8487,11 +8485,11 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="39">
         <v>43983</v>
       </c>
-      <c r="B298" s="50" t="s">
+      <c r="B298" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C298" s="13">
@@ -8511,11 +8509,11 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="39">
         <v>44013</v>
       </c>
-      <c r="B299" s="50" t="s">
+      <c r="B299" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C299" s="13">
@@ -8535,11 +8533,11 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="39">
         <v>44044</v>
       </c>
-      <c r="B300" s="50" t="s">
+      <c r="B300" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C300" s="13">
@@ -8559,11 +8557,11 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="39">
         <v>44075</v>
       </c>
-      <c r="B301" s="50" t="s">
+      <c r="B301" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C301" s="13">
@@ -8583,11 +8581,11 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="39">
         <v>44105</v>
       </c>
-      <c r="B302" s="50" t="s">
+      <c r="B302" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C302" s="13">
@@ -8607,11 +8605,11 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="39">
         <v>44136</v>
       </c>
-      <c r="B303" s="50" t="s">
+      <c r="B303" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C303" s="13">
@@ -8631,7 +8629,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="39">
         <v>44166</v>
       </c>
@@ -8655,7 +8653,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="47" t="s">
         <v>72</v>
       </c>
@@ -8673,11 +8671,11 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="39">
         <v>44197</v>
       </c>
-      <c r="B306" s="50" t="s">
+      <c r="B306" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C306" s="13">
@@ -8697,11 +8695,11 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="39">
         <v>44228</v>
       </c>
-      <c r="B307" s="50" t="s">
+      <c r="B307" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C307" s="13">
@@ -8721,11 +8719,11 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="39">
         <v>44256</v>
       </c>
-      <c r="B308" s="50" t="s">
+      <c r="B308" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C308" s="13">
@@ -8745,11 +8743,11 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="39">
         <v>44287</v>
       </c>
-      <c r="B309" s="50" t="s">
+      <c r="B309" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C309" s="13">
@@ -8769,11 +8767,11 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="39">
         <v>44317</v>
       </c>
-      <c r="B310" s="50" t="s">
+      <c r="B310" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C310" s="13">
@@ -8793,11 +8791,11 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="39">
         <v>44348</v>
       </c>
-      <c r="B311" s="50" t="s">
+      <c r="B311" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C311" s="13">
@@ -8817,11 +8815,11 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="39">
         <v>44378</v>
       </c>
-      <c r="B312" s="50" t="s">
+      <c r="B312" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C312" s="13">
@@ -8841,11 +8839,11 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="39">
         <v>44409</v>
       </c>
-      <c r="B313" s="50" t="s">
+      <c r="B313" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C313" s="13">
@@ -8865,11 +8863,11 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="39">
         <v>44440</v>
       </c>
-      <c r="B314" s="50" t="s">
+      <c r="B314" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C314" s="13">
@@ -8889,11 +8887,11 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="39">
         <v>44470</v>
       </c>
-      <c r="B315" s="50" t="s">
+      <c r="B315" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C315" s="13">
@@ -8913,11 +8911,11 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="39">
         <v>44501</v>
       </c>
-      <c r="B316" s="50" t="s">
+      <c r="B316" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C316" s="13">
@@ -8937,7 +8935,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="39">
         <v>44531</v>
       </c>
@@ -8961,7 +8959,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="47" t="s">
         <v>74</v>
       </c>
@@ -8979,11 +8977,11 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="39">
         <v>44562</v>
       </c>
-      <c r="B319" s="50" t="s">
+      <c r="B319" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C319" s="13">
@@ -9003,11 +9001,11 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="39">
         <v>44593</v>
       </c>
-      <c r="B320" s="50" t="s">
+      <c r="B320" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C320" s="13">
@@ -9027,11 +9025,11 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="39">
         <v>44621</v>
       </c>
-      <c r="B321" s="50" t="s">
+      <c r="B321" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C321" s="13">
@@ -9051,11 +9049,11 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="39">
         <v>44652</v>
       </c>
-      <c r="B322" s="50" t="s">
+      <c r="B322" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C322" s="13">
@@ -9075,9 +9073,9 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="39"/>
-      <c r="B323" s="50" t="s">
+      <c r="B323" s="20" t="s">
         <v>172</v>
       </c>
       <c r="C323" s="13"/>
@@ -9095,7 +9093,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="39">
         <v>44682</v>
       </c>
@@ -9119,7 +9117,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="39"/>
       <c r="B325" s="20" t="s">
         <v>79</v>
@@ -9139,7 +9137,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="39"/>
       <c r="B326" s="20" t="s">
         <v>233</v>
@@ -9159,11 +9157,11 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="39">
         <v>44713</v>
       </c>
-      <c r="B327" s="50" t="s">
+      <c r="B327" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C327" s="13">
@@ -9183,9 +9181,9 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="39"/>
-      <c r="B328" s="50" t="s">
+      <c r="B328" s="20" t="s">
         <v>232</v>
       </c>
       <c r="C328" s="13"/>
@@ -9203,11 +9201,11 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="39">
         <v>44743</v>
       </c>
-      <c r="B329" s="50" t="s">
+      <c r="B329" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C329" s="13">
@@ -9227,9 +9225,9 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="39"/>
-      <c r="B330" s="50" t="s">
+      <c r="B330" s="20" t="s">
         <v>141</v>
       </c>
       <c r="C330" s="13"/>
@@ -9247,7 +9245,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="39">
         <v>44774</v>
       </c>
@@ -9273,11 +9271,11 @@
         <v>75</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="39">
         <v>44805</v>
       </c>
-      <c r="B332" s="50" t="s">
+      <c r="B332" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C332" s="13">
@@ -9297,11 +9295,11 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="39">
         <v>44835</v>
       </c>
-      <c r="B333" s="50" t="s">
+      <c r="B333" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C333" s="13">
@@ -9321,9 +9319,9 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="39"/>
-      <c r="B334" s="50" t="s">
+      <c r="B334" s="20" t="s">
         <v>231</v>
       </c>
       <c r="C334" s="13"/>
@@ -9341,7 +9339,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="39">
         <v>44866</v>
       </c>
@@ -9367,7 +9365,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="39"/>
       <c r="B336" s="20" t="s">
         <v>102</v>
@@ -9385,11 +9383,11 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="39">
         <v>44896</v>
       </c>
-      <c r="B337" s="50" t="s">
+      <c r="B337" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C337" s="13">
@@ -9411,7 +9409,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="47" t="s">
         <v>78</v>
       </c>
@@ -9429,11 +9427,11 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="39">
         <v>44927</v>
       </c>
-      <c r="B339" s="50" t="s">
+      <c r="B339" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C339" s="13">
@@ -9453,7 +9451,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="39">
         <v>44958</v>
       </c>
@@ -9479,7 +9477,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="39">
         <v>44986</v>
       </c>
@@ -9503,7 +9501,7 @@
         <v>45011</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="39">
         <v>45017</v>
       </c>
@@ -9529,7 +9527,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="39"/>
       <c r="B343" s="20" t="s">
         <v>48</v>
@@ -9549,7 +9547,7 @@
         <v>45066</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="39">
         <v>45047</v>
       </c>
@@ -9575,7 +9573,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="39">
         <v>45078</v>
       </c>
@@ -9595,7 +9593,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="39">
         <v>45108</v>
       </c>
@@ -9615,7 +9613,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="39">
         <v>45139</v>
       </c>
@@ -9635,7 +9633,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="39">
         <v>45170</v>
       </c>
@@ -9655,7 +9653,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="39">
         <v>45200</v>
       </c>
@@ -9681,7 +9679,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="39">
         <v>45231</v>
       </c>
@@ -9701,7 +9699,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="39">
         <v>45261</v>
       </c>
@@ -9727,7 +9725,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="39"/>
       <c r="B352" s="20" t="s">
         <v>98</v>
@@ -9749,7 +9747,7 @@
         <v>45291</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="47" t="s">
         <v>235</v>
       </c>
@@ -9767,20 +9765,22 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="39">
         <v>45292</v>
       </c>
       <c r="B354" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="C354" s="13"/>
+      <c r="C354" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D354" s="38"/>
       <c r="E354" s="9"/>
       <c r="F354" s="20"/>
-      <c r="G354" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G354" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H354" s="38">
         <v>2</v>
@@ -9791,13 +9791,17 @@
         <v>237</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="39">
         <v>45323</v>
       </c>
-      <c r="B355" s="20"/>
+      <c r="B355" s="20" t="s">
+        <v>89</v>
+      </c>
       <c r="C355" s="13"/>
-      <c r="D355" s="38"/>
+      <c r="D355" s="38">
+        <v>5</v>
+      </c>
       <c r="E355" s="9"/>
       <c r="F355" s="20"/>
       <c r="G355" s="13" t="str">
@@ -9807,9 +9811,11 @@
       <c r="H355" s="38"/>
       <c r="I355" s="9"/>
       <c r="J355" s="11"/>
-      <c r="K355" s="20"/>
-    </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K355" s="20" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="39">
         <v>45352</v>
       </c>
@@ -9827,7 +9833,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="39">
         <v>45383</v>
       </c>
@@ -9845,7 +9851,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="39">
         <v>45413</v>
       </c>
@@ -9863,9 +9869,9 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="39"/>
-      <c r="B359" s="50"/>
+      <c r="B359" s="20"/>
       <c r="C359" s="13"/>
       <c r="D359" s="38"/>
       <c r="E359" s="9"/>
@@ -9879,9 +9885,9 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="39"/>
-      <c r="B360" s="50"/>
+      <c r="B360" s="20"/>
       <c r="C360" s="13"/>
       <c r="D360" s="38"/>
       <c r="E360" s="9"/>
@@ -9895,9 +9901,9 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="39"/>
-      <c r="B361" s="50"/>
+      <c r="B361" s="20"/>
       <c r="C361" s="13"/>
       <c r="D361" s="38"/>
       <c r="E361" s="9"/>
@@ -9911,9 +9917,9 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="39"/>
-      <c r="B362" s="50"/>
+      <c r="B362" s="20"/>
       <c r="C362" s="13"/>
       <c r="D362" s="38"/>
       <c r="E362" s="9"/>
@@ -9927,9 +9933,9 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="39"/>
-      <c r="B363" s="50"/>
+      <c r="B363" s="20"/>
       <c r="C363" s="13"/>
       <c r="D363" s="38"/>
       <c r="E363" s="9"/>
@@ -9943,9 +9949,9 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="39"/>
-      <c r="B364" s="50"/>
+      <c r="B364" s="20"/>
       <c r="C364" s="13"/>
       <c r="D364" s="38"/>
       <c r="E364" s="9"/>
@@ -9959,9 +9965,9 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="39"/>
-      <c r="B365" s="50"/>
+      <c r="B365" s="20"/>
       <c r="C365" s="13"/>
       <c r="D365" s="38"/>
       <c r="E365" s="9"/>
@@ -9975,9 +9981,9 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="39"/>
-      <c r="B366" s="50"/>
+      <c r="B366" s="20"/>
       <c r="C366" s="13"/>
       <c r="D366" s="38"/>
       <c r="E366" s="9"/>
@@ -9991,9 +9997,9 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="39"/>
-      <c r="B367" s="50"/>
+      <c r="B367" s="20"/>
       <c r="C367" s="13"/>
       <c r="D367" s="38"/>
       <c r="E367" s="9"/>
@@ -10007,9 +10013,9 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="39"/>
-      <c r="B368" s="50"/>
+      <c r="B368" s="20"/>
       <c r="C368" s="13"/>
       <c r="D368" s="38"/>
       <c r="E368" s="9"/>
@@ -10023,9 +10029,9 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="39"/>
-      <c r="B369" s="50"/>
+      <c r="B369" s="20"/>
       <c r="C369" s="13"/>
       <c r="D369" s="38"/>
       <c r="E369" s="9"/>
@@ -10039,9 +10045,9 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="39"/>
-      <c r="B370" s="50"/>
+      <c r="B370" s="20"/>
       <c r="C370" s="13"/>
       <c r="D370" s="38"/>
       <c r="E370" s="9"/>
@@ -10055,9 +10061,9 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="39"/>
-      <c r="B371" s="50"/>
+      <c r="B371" s="20"/>
       <c r="C371" s="13"/>
       <c r="D371" s="38"/>
       <c r="E371" s="9"/>
@@ -10071,9 +10077,9 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="39"/>
-      <c r="B372" s="50"/>
+      <c r="B372" s="20"/>
       <c r="C372" s="13"/>
       <c r="D372" s="38"/>
       <c r="E372" s="9"/>
@@ -10087,9 +10093,9 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="39"/>
-      <c r="B373" s="50"/>
+      <c r="B373" s="20"/>
       <c r="C373" s="13"/>
       <c r="D373" s="38"/>
       <c r="E373" s="9"/>
@@ -10103,9 +10109,9 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="39"/>
-      <c r="B374" s="50"/>
+      <c r="B374" s="20"/>
       <c r="C374" s="13"/>
       <c r="D374" s="38"/>
       <c r="E374" s="9"/>
@@ -10119,9 +10125,9 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="39"/>
-      <c r="B375" s="50"/>
+      <c r="B375" s="20"/>
       <c r="C375" s="13"/>
       <c r="D375" s="38"/>
       <c r="E375" s="9"/>
@@ -10135,9 +10141,9 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="39"/>
-      <c r="B376" s="50"/>
+      <c r="B376" s="20"/>
       <c r="C376" s="13"/>
       <c r="D376" s="38"/>
       <c r="E376" s="9"/>
@@ -10151,9 +10157,9 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="39"/>
-      <c r="B377" s="50"/>
+      <c r="B377" s="20"/>
       <c r="C377" s="13"/>
       <c r="D377" s="38"/>
       <c r="E377" s="9"/>
@@ -10167,9 +10173,9 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="39"/>
-      <c r="B378" s="50"/>
+      <c r="B378" s="20"/>
       <c r="C378" s="13"/>
       <c r="D378" s="38"/>
       <c r="E378" s="9"/>
@@ -10183,9 +10189,9 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="39"/>
-      <c r="B379" s="50"/>
+      <c r="B379" s="20"/>
       <c r="C379" s="13"/>
       <c r="D379" s="38"/>
       <c r="E379" s="9"/>
@@ -10199,9 +10205,9 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="39"/>
-      <c r="B380" s="50"/>
+      <c r="B380" s="20"/>
       <c r="C380" s="13"/>
       <c r="D380" s="38"/>
       <c r="E380" s="9"/>
@@ -10215,9 +10221,9 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="39"/>
-      <c r="B381" s="50"/>
+      <c r="B381" s="20"/>
       <c r="C381" s="13"/>
       <c r="D381" s="38"/>
       <c r="E381" s="9"/>
@@ -10231,9 +10237,9 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="39"/>
-      <c r="B382" s="50"/>
+      <c r="B382" s="20"/>
       <c r="C382" s="13"/>
       <c r="D382" s="38"/>
       <c r="E382" s="9"/>
@@ -10247,9 +10253,9 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="39"/>
-      <c r="B383" s="50"/>
+      <c r="B383" s="20"/>
       <c r="C383" s="13"/>
       <c r="D383" s="38"/>
       <c r="E383" s="9"/>
@@ -10263,9 +10269,9 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="39"/>
-      <c r="B384" s="50"/>
+      <c r="B384" s="20"/>
       <c r="C384" s="13"/>
       <c r="D384" s="38"/>
       <c r="E384" s="9"/>
@@ -10279,9 +10285,9 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40"/>
-      <c r="B385" s="53"/>
+      <c r="B385" s="15"/>
       <c r="C385" s="41"/>
       <c r="D385" s="42"/>
       <c r="E385" s="9"/>
@@ -10310,10 +10316,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10339,41 +10345,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="36" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="36" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="62" t="s">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D1" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="J1" s="63" t="s">
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="J1" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -10402,7 +10408,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11">
@@ -10428,17 +10434,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="37" t="s">
         <v>28</v>
       </c>
@@ -10452,14 +10458,14 @@
         <v>30</v>
       </c>
       <c r="G6" s="45"/>
-      <c r="I6" s="64" t="s">
+      <c r="I6" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="36">
         <v>1</v>
       </c>
@@ -10486,7 +10492,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="36">
         <v>2</v>
       </c>
@@ -10512,7 +10518,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="36">
         <v>3</v>
       </c>
@@ -10538,7 +10544,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="36">
         <v>4</v>
       </c>
@@ -10564,7 +10570,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="36">
         <v>5</v>
       </c>
@@ -10590,7 +10596,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="36">
         <v>6</v>
       </c>
@@ -10616,7 +10622,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="36">
         <v>7</v>
       </c>
@@ -10642,7 +10648,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="36">
         <v>8</v>
       </c>
@@ -10668,7 +10674,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="36">
         <v>9</v>
       </c>
@@ -10688,7 +10694,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="36">
         <v>10</v>
       </c>
@@ -10708,7 +10714,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="36">
         <v>11</v>
       </c>
@@ -10728,7 +10734,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="36">
         <v>12</v>
       </c>
@@ -10749,7 +10755,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="36">
         <v>13</v>
       </c>
@@ -10770,7 +10776,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="36">
         <v>14</v>
       </c>
@@ -10791,7 +10797,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="36">
         <v>15</v>
       </c>
@@ -10812,7 +10818,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="36">
         <v>16</v>
       </c>
@@ -10833,7 +10839,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="36">
         <v>17</v>
       </c>
@@ -10854,7 +10860,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="36">
         <v>18</v>
       </c>
@@ -10875,7 +10881,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="36">
         <v>19</v>
       </c>
@@ -10896,7 +10902,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="36">
         <v>20</v>
       </c>
@@ -10917,7 +10923,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="36">
         <v>21</v>
       </c>
@@ -10938,7 +10944,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="36">
         <v>22</v>
       </c>
@@ -10959,7 +10965,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="36">
         <v>23</v>
       </c>
@@ -10980,7 +10986,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="36">
         <v>24</v>
       </c>
@@ -11001,7 +11007,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="36">
         <v>25</v>
       </c>
@@ -11022,7 +11028,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="36">
         <v>26</v>
       </c>
@@ -11043,7 +11049,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="36">
         <v>27</v>
       </c>
@@ -11064,7 +11070,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="36">
         <v>28</v>
       </c>
@@ -11085,7 +11091,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="36">
         <v>29</v>
       </c>
@@ -11106,7 +11112,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="36">
         <v>30</v>
       </c>
@@ -11127,7 +11133,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="36">
         <v>31</v>
       </c>
@@ -11148,7 +11154,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="36">
         <v>32</v>
       </c>
@@ -11157,7 +11163,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="36">
         <v>33</v>
       </c>
@@ -11166,7 +11172,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="36">
         <v>34</v>
       </c>
@@ -11175,7 +11181,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="36">
         <v>35</v>
       </c>
@@ -11184,7 +11190,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="36">
         <v>36</v>
       </c>
@@ -11193,7 +11199,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="36">
         <v>37</v>
       </c>
@@ -11202,7 +11208,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="36">
         <v>38</v>
       </c>
@@ -11211,7 +11217,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="36">
         <v>39</v>
       </c>
@@ -11220,7 +11226,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="36">
         <v>40</v>
       </c>
@@ -11229,7 +11235,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="36">
         <v>41</v>
       </c>
@@ -11238,7 +11244,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="36">
         <v>42</v>
       </c>
@@ -11247,7 +11253,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="36">
         <v>43</v>
       </c>
@@ -11256,7 +11262,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="36">
         <v>44</v>
       </c>
@@ -11265,7 +11271,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="36">
         <v>45</v>
       </c>
@@ -11274,7 +11280,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="36">
         <v>46</v>
       </c>
@@ -11283,7 +11289,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="36">
         <v>47</v>
       </c>
@@ -11292,7 +11298,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="36">
         <v>48</v>
       </c>
@@ -11301,7 +11307,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="36">
         <v>49</v>
       </c>
@@ -11310,7 +11316,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="36">
         <v>50</v>
       </c>
@@ -11319,7 +11325,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="36">
         <v>51</v>
       </c>
@@ -11328,7 +11334,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="36">
         <v>52</v>
       </c>
@@ -11337,7 +11343,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="36">
         <v>53</v>
       </c>
@@ -11346,7 +11352,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="36">
         <v>54</v>
       </c>
@@ -11355,7 +11361,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="36">
         <v>55</v>
       </c>
@@ -11364,7 +11370,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="36">
         <v>56</v>
       </c>
@@ -11373,7 +11379,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="36">
         <v>57</v>
       </c>
@@ -11382,7 +11388,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="36">
         <v>58</v>
       </c>
@@ -11391,7 +11397,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="36">
         <v>59</v>
       </c>
@@ -11400,7 +11406,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="36">
         <v>60</v>
       </c>
@@ -11409,7 +11415,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
